--- a/analysis/bw-dualascent-limitedbw.xlsx
+++ b/analysis/bw-dualascent-limitedbw.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\anaws\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E94FD8E7-05D8-480D-ADB5-3F1EE291AA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7997C-1342-4B02-98B5-D49C1E852363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="h1-h6" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,18 @@
     <sheet name="h20-h1" sheetId="4" r:id="rId5"/>
     <sheet name="h20-h6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,10 +967,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -10601,7 +10612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20247,7 +20258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29893,7 +29904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39539,11 +39550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49185,21 +49196,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -49236,10 +49247,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="5">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5">
-        <v>75.497472000000002</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -49256,10 +49267,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="5">
-        <v>9.125</v>
+        <v>37.5</v>
       </c>
       <c r="F3" s="5">
-        <v>76.546047999999999</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -49276,10 +49287,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="5">
-        <v>9.125</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5">
-        <v>76.546047999999999</v>
+        <v>327.15571199999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -49296,10 +49307,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>9</v>
+        <v>40.75</v>
       </c>
       <c r="F5" s="5">
-        <v>75.497472000000002</v>
+        <v>341.83577600000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -49316,10 +49327,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="5">
-        <v>9.125</v>
+        <v>37.5</v>
       </c>
       <c r="F6" s="5">
-        <v>76.546047999999999</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -49336,10 +49347,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="5">
-        <v>9</v>
+        <v>36.5</v>
       </c>
       <c r="F7" s="5">
-        <v>75.497472000000002</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -49356,10 +49367,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="5">
-        <v>9</v>
+        <v>37.25</v>
       </c>
       <c r="F8" s="5">
-        <v>75.497472000000002</v>
+        <v>312.47564799999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -49376,10 +49387,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="5">
-        <v>9.125</v>
+        <v>37.125</v>
       </c>
       <c r="F9" s="5">
-        <v>76.546047999999999</v>
+        <v>311.42707200000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -49396,10 +49407,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="5">
-        <v>10.875</v>
+        <v>37.375</v>
       </c>
       <c r="F10" s="5">
-        <v>91.226112000000001</v>
+        <v>313.524224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -49416,10 +49427,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="5">
-        <v>9.125</v>
+        <v>37.125</v>
       </c>
       <c r="F11" s="5">
-        <v>76.546047999999999</v>
+        <v>311.42707200000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -49436,10 +49447,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="5">
-        <v>9</v>
+        <v>39.25</v>
       </c>
       <c r="F12" s="5">
-        <v>75.497472000000002</v>
+        <v>329.25286399999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -49456,10 +49467,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="5">
-        <v>9.25</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
-        <v>77.594623999999996</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -49476,10 +49487,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="5">
-        <v>11</v>
+        <v>37.25</v>
       </c>
       <c r="F14" s="5">
-        <v>92.274687999999998</v>
+        <v>312.47564799999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -49496,10 +49507,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="5">
-        <v>9.125</v>
+        <v>37.375</v>
       </c>
       <c r="F15" s="5">
-        <v>76.546047999999999</v>
+        <v>313.524224</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -49516,10 +49527,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="5">
-        <v>10.25</v>
+        <v>37.125</v>
       </c>
       <c r="F16" s="5">
-        <v>85.983232000000001</v>
+        <v>311.42707200000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -49536,10 +49547,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="5">
-        <v>9</v>
+        <v>37.5</v>
       </c>
       <c r="F17" s="5">
-        <v>75.497472000000002</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -49556,10 +49567,10 @@
         <v>6</v>
       </c>
       <c r="E18" s="5">
-        <v>9</v>
+        <v>37.5</v>
       </c>
       <c r="F18" s="5">
-        <v>75.497472000000002</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -49576,10 +49587,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="5">
-        <v>36.625</v>
+        <v>36.875</v>
       </c>
       <c r="F19" s="5">
-        <v>307.23276800000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -49596,10 +49607,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="5">
-        <v>36.625</v>
+        <v>38.125</v>
       </c>
       <c r="F20" s="5">
-        <v>307.23276800000002</v>
+        <v>319.81567999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -49616,10 +49627,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="5">
-        <v>38.25</v>
+        <v>37.5</v>
       </c>
       <c r="F21" s="5">
-        <v>320.86425600000001</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -49636,10 +49647,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="5">
-        <v>35.875</v>
+        <v>36.875</v>
       </c>
       <c r="F22" s="5">
-        <v>300.94131199999998</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -49656,10 +49667,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="5">
-        <v>35.875</v>
+        <v>37.75</v>
       </c>
       <c r="F23" s="5">
-        <v>300.94131199999998</v>
+        <v>316.66995200000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -49676,10 +49687,10 @@
         <v>6</v>
       </c>
       <c r="E24" s="5">
-        <v>36.375</v>
+        <v>37.375</v>
       </c>
       <c r="F24" s="5">
-        <v>305.13561600000003</v>
+        <v>313.524224</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -49696,10 +49707,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="5">
-        <v>38.375</v>
+        <v>39.5</v>
       </c>
       <c r="F25" s="5">
-        <v>321.91283199999998</v>
+        <v>331.35001599999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -49716,10 +49727,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="5">
-        <v>36.375</v>
+        <v>37.5</v>
       </c>
       <c r="F26" s="5">
-        <v>305.13561600000003</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -49736,10 +49747,10 @@
         <v>6</v>
       </c>
       <c r="E27" s="5">
-        <v>38.25</v>
+        <v>36.5</v>
       </c>
       <c r="F27" s="5">
-        <v>320.86425600000001</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -49776,10 +49787,10 @@
         <v>6</v>
       </c>
       <c r="E29" s="5">
-        <v>36.75</v>
+        <v>37.125</v>
       </c>
       <c r="F29" s="5">
-        <v>308.28134399999999</v>
+        <v>311.42707200000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -49796,10 +49807,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="5">
-        <v>36</v>
+        <v>36.625</v>
       </c>
       <c r="F30" s="5">
-        <v>301.98988800000001</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -49816,10 +49827,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="5">
-        <v>36.125</v>
+        <v>37</v>
       </c>
       <c r="F31" s="5">
-        <v>303.03846399999998</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -49836,10 +49847,10 @@
         <v>21</v>
       </c>
       <c r="E32" s="5">
-        <v>128.875</v>
+        <v>542</v>
       </c>
       <c r="F32" s="5">
-        <v>71.969480000000004</v>
+        <v>302.95150000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -49856,10 +49867,10 @@
         <v>21</v>
       </c>
       <c r="E33" s="5">
-        <v>128.875</v>
+        <v>543.25</v>
       </c>
       <c r="F33" s="5">
-        <v>71.942684</v>
+        <v>303.65846499999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -49876,10 +49887,10 @@
         <v>21</v>
       </c>
       <c r="E34" s="5">
-        <v>128.75</v>
+        <v>543.5</v>
       </c>
       <c r="F34" s="5">
-        <v>71.964834999999994</v>
+        <v>303.56633499999998</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -49896,10 +49907,10 @@
         <v>21</v>
       </c>
       <c r="E35" s="5">
-        <v>128.75</v>
+        <v>546.625</v>
       </c>
       <c r="F35" s="5">
-        <v>71.909301999999997</v>
+        <v>305.54707300000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -49916,10 +49927,10 @@
         <v>21</v>
       </c>
       <c r="E36" s="5">
-        <v>128.875</v>
+        <v>547.625</v>
       </c>
       <c r="F36" s="5">
-        <v>71.950272999999996</v>
+        <v>306.01970599999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -49936,10 +49947,10 @@
         <v>21</v>
       </c>
       <c r="E37" s="5">
-        <v>128.75</v>
+        <v>544</v>
       </c>
       <c r="F37" s="5">
-        <v>71.941490000000002</v>
+        <v>304.03158000000002</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -49956,10 +49967,10 @@
         <v>21</v>
       </c>
       <c r="E38" s="5">
-        <v>128.75</v>
+        <v>546.25</v>
       </c>
       <c r="F38" s="5">
-        <v>71.979980999999995</v>
+        <v>305.236312</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -49976,15 +49987,15 @@
         <v>21</v>
       </c>
       <c r="E39" s="5">
-        <v>128.875</v>
+        <v>547.375</v>
       </c>
       <c r="F39" s="5">
-        <v>71.954256999999998</v>
+        <v>305.80094200000002</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -49996,15 +50007,15 @@
         <v>21</v>
       </c>
       <c r="E40" s="5">
-        <v>128.75</v>
+        <v>547.5</v>
       </c>
       <c r="F40" s="5">
-        <v>71.987196999999995</v>
+        <v>305.898054</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -50016,15 +50027,15 @@
         <v>21</v>
       </c>
       <c r="E41" s="5">
-        <v>128.625</v>
+        <v>541.625</v>
       </c>
       <c r="F41" s="5">
-        <v>71.927259000000006</v>
+        <v>302.86873000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>23</v>
@@ -50036,15 +50047,15 @@
         <v>21</v>
       </c>
       <c r="E42" s="5">
-        <v>128.875</v>
+        <v>546.375</v>
       </c>
       <c r="F42" s="5">
-        <v>72.016075999999998</v>
+        <v>305.01665100000002</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>23</v>
@@ -50056,15 +50067,15 @@
         <v>21</v>
       </c>
       <c r="E43" s="5">
-        <v>128.75</v>
+        <v>546.25</v>
       </c>
       <c r="F43" s="5">
-        <v>71.947350999999998</v>
+        <v>305.11692599999998</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
@@ -50076,15 +50087,15 @@
         <v>21</v>
       </c>
       <c r="E44" s="5">
-        <v>128.75</v>
+        <v>544</v>
       </c>
       <c r="F44" s="5">
-        <v>71.917590000000004</v>
+        <v>303.96305000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
@@ -50096,15 +50107,15 @@
         <v>21</v>
       </c>
       <c r="E45" s="5">
-        <v>128.875</v>
+        <v>543.75</v>
       </c>
       <c r="F45" s="5">
-        <v>71.939137000000002</v>
+        <v>303.93904099999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>23</v>
@@ -50116,15 +50127,15 @@
         <v>21</v>
       </c>
       <c r="E46" s="5">
-        <v>534.375</v>
+        <v>544.375</v>
       </c>
       <c r="F46" s="5">
-        <v>298.73482300000001</v>
+        <v>304.25157999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>23</v>
@@ -50136,15 +50147,15 @@
         <v>21</v>
       </c>
       <c r="E47" s="5">
-        <v>533.875</v>
+        <v>542</v>
       </c>
       <c r="F47" s="5">
-        <v>298.51210099999997</v>
+        <v>303.10186199999998</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>23</v>
@@ -50156,15 +50167,15 @@
         <v>21</v>
       </c>
       <c r="E48" s="5">
-        <v>535.875</v>
+        <v>541.375</v>
       </c>
       <c r="F48" s="5">
-        <v>299.47947399999998</v>
+        <v>302.64156000000003</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
@@ -50176,15 +50187,15 @@
         <v>21</v>
       </c>
       <c r="E49" s="5">
-        <v>533</v>
+        <v>542.875</v>
       </c>
       <c r="F49" s="5">
-        <v>297.95524699999999</v>
+        <v>303.365993</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>23</v>
@@ -50196,15 +50207,15 @@
         <v>21</v>
       </c>
       <c r="E50" s="5">
-        <v>534.25</v>
+        <v>549.25</v>
       </c>
       <c r="F50" s="5">
-        <v>298.58562799999999</v>
+        <v>307.122998</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>23</v>
@@ -50216,15 +50227,15 @@
         <v>21</v>
       </c>
       <c r="E51" s="5">
-        <v>533.875</v>
+        <v>546.5</v>
       </c>
       <c r="F51" s="5">
-        <v>298.39087599999999</v>
+        <v>305.40546599999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>23</v>
@@ -50236,15 +50247,15 @@
         <v>21</v>
       </c>
       <c r="E52" s="5">
-        <v>536</v>
+        <v>541.375</v>
       </c>
       <c r="F52" s="5">
-        <v>299.00658499999997</v>
+        <v>302.68591600000002</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -50256,15 +50267,15 @@
         <v>21</v>
       </c>
       <c r="E53" s="5">
-        <v>533.875</v>
+        <v>549.75</v>
       </c>
       <c r="F53" s="5">
-        <v>298.25991599999998</v>
+        <v>307.194413</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
@@ -50276,15 +50287,15 @@
         <v>21</v>
       </c>
       <c r="E54" s="5">
-        <v>535.875</v>
+        <v>547.75</v>
       </c>
       <c r="F54" s="5">
-        <v>299.21409199999999</v>
+        <v>306.28077500000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>23</v>
@@ -50296,15 +50307,15 @@
         <v>21</v>
       </c>
       <c r="E55" s="5">
-        <v>533.625</v>
+        <v>550.875</v>
       </c>
       <c r="F55" s="5">
-        <v>298.16490800000003</v>
+        <v>307.57104600000002</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>23</v>
@@ -50316,15 +50327,15 @@
         <v>21</v>
       </c>
       <c r="E56" s="5">
-        <v>534</v>
+        <v>548.75</v>
       </c>
       <c r="F56" s="5">
-        <v>298.31923999999998</v>
+        <v>306.85073599999998</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -50336,15 +50347,15 @@
         <v>21</v>
       </c>
       <c r="E57" s="5">
-        <v>533.75</v>
+        <v>540.25</v>
       </c>
       <c r="F57" s="5">
-        <v>298.35886099999999</v>
+        <v>301.82429200000001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>23</v>
@@ -50356,15 +50367,15 @@
         <v>21</v>
       </c>
       <c r="E58" s="5">
-        <v>533.75</v>
+        <v>539.75</v>
       </c>
       <c r="F58" s="5">
-        <v>298.35261800000001</v>
+        <v>301.76717200000002</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
@@ -50373,18 +50384,18 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="5">
-        <v>130.375</v>
+        <v>539.375</v>
       </c>
       <c r="F59" s="5">
-        <v>72.524809000000005</v>
+        <v>301.61774100000002</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>23</v>
@@ -50393,18 +50404,18 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="5">
-        <v>130.625</v>
+        <v>542.375</v>
       </c>
       <c r="F60" s="5">
-        <v>72.593100000000007</v>
+        <v>303.30316099999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>23</v>
@@ -50413,13 +50424,13 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="5">
-        <v>130.25</v>
+        <v>546.375</v>
       </c>
       <c r="F61" s="5">
-        <v>72.538848000000002</v>
+        <v>305.41420900000003</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -50436,10 +50447,10 @@
         <v>7</v>
       </c>
       <c r="E62" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F62" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -50456,10 +50467,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="5">
-        <v>8.625</v>
+        <v>36</v>
       </c>
       <c r="F63" s="5">
-        <v>72.351743999999997</v>
+        <v>301.98988800000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -50476,10 +50487,10 @@
         <v>7</v>
       </c>
       <c r="E64" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F64" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -50496,10 +50507,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F65" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -50516,10 +50527,10 @@
         <v>7</v>
       </c>
       <c r="E66" s="5">
-        <v>8.625</v>
+        <v>35.875</v>
       </c>
       <c r="F66" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -50536,10 +50547,10 @@
         <v>7</v>
       </c>
       <c r="E67" s="5">
-        <v>8.625</v>
+        <v>37</v>
       </c>
       <c r="F67" s="5">
-        <v>72.351743999999997</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -50556,10 +50567,10 @@
         <v>7</v>
       </c>
       <c r="E68" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F68" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -50576,10 +50587,10 @@
         <v>7</v>
       </c>
       <c r="E69" s="5">
-        <v>8.625</v>
+        <v>36.5</v>
       </c>
       <c r="F69" s="5">
-        <v>72.351743999999997</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -50596,10 +50607,10 @@
         <v>7</v>
       </c>
       <c r="E70" s="5">
-        <v>8</v>
+        <v>36.375</v>
       </c>
       <c r="F70" s="5">
-        <v>67.108863999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -50616,10 +50627,10 @@
         <v>7</v>
       </c>
       <c r="E71" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F71" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -50636,10 +50647,10 @@
         <v>7</v>
       </c>
       <c r="E72" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F72" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -50656,10 +50667,10 @@
         <v>7</v>
       </c>
       <c r="E73" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F73" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -50676,10 +50687,10 @@
         <v>7</v>
       </c>
       <c r="E74" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F74" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -50696,10 +50707,10 @@
         <v>7</v>
       </c>
       <c r="E75" s="5">
-        <v>8.5</v>
+        <v>36.125</v>
       </c>
       <c r="F75" s="5">
-        <v>71.303167999999999</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -50716,10 +50727,10 @@
         <v>7</v>
       </c>
       <c r="E76" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F76" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -50736,10 +50747,10 @@
         <v>7</v>
       </c>
       <c r="E77" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F77" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -50756,10 +50767,10 @@
         <v>7</v>
       </c>
       <c r="E78" s="5">
-        <v>8.75</v>
+        <v>35.875</v>
       </c>
       <c r="F78" s="5">
-        <v>73.400319999999994</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -50776,10 +50787,10 @@
         <v>7</v>
       </c>
       <c r="E79" s="5">
-        <v>35.125</v>
+        <v>35.75</v>
       </c>
       <c r="F79" s="5">
-        <v>294.649856</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -50796,10 +50807,10 @@
         <v>7</v>
       </c>
       <c r="E80" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F80" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -50816,10 +50827,10 @@
         <v>7</v>
       </c>
       <c r="E81" s="5">
-        <v>35.625</v>
+        <v>36.875</v>
       </c>
       <c r="F81" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -50836,10 +50847,10 @@
         <v>7</v>
       </c>
       <c r="E82" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F82" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -50856,10 +50867,10 @@
         <v>7</v>
       </c>
       <c r="E83" s="5">
-        <v>35.75</v>
+        <v>36.625</v>
       </c>
       <c r="F83" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -50876,10 +50887,10 @@
         <v>7</v>
       </c>
       <c r="E84" s="5">
-        <v>35.875</v>
+        <v>36.75</v>
       </c>
       <c r="F84" s="5">
-        <v>300.94131199999998</v>
+        <v>308.28134399999999</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -50896,10 +50907,10 @@
         <v>7</v>
       </c>
       <c r="E85" s="5">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="F85" s="5">
-        <v>297.79558400000002</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -50916,10 +50927,10 @@
         <v>7</v>
       </c>
       <c r="E86" s="5">
-        <v>35.625</v>
+        <v>36.5</v>
       </c>
       <c r="F86" s="5">
-        <v>298.84415999999999</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -50936,10 +50947,10 @@
         <v>7</v>
       </c>
       <c r="E87" s="5">
-        <v>35.5</v>
+        <v>36.25</v>
       </c>
       <c r="F87" s="5">
-        <v>297.79558400000002</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -50956,10 +50967,10 @@
         <v>7</v>
       </c>
       <c r="E88" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F88" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -50976,10 +50987,10 @@
         <v>7</v>
       </c>
       <c r="E89" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F89" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -50996,10 +51007,10 @@
         <v>7</v>
       </c>
       <c r="E90" s="5">
-        <v>35.625</v>
+        <v>36</v>
       </c>
       <c r="F90" s="5">
-        <v>298.84415999999999</v>
+        <v>301.98988800000001</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -51016,10 +51027,10 @@
         <v>7</v>
       </c>
       <c r="E91" s="5">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="F91" s="5">
-        <v>297.79558400000002</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -51036,10 +51047,10 @@
         <v>16</v>
       </c>
       <c r="E92" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F92" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -51056,10 +51067,10 @@
         <v>16</v>
       </c>
       <c r="E93" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F93" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -51076,10 +51087,10 @@
         <v>16</v>
       </c>
       <c r="E94" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F94" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -51096,10 +51107,10 @@
         <v>16</v>
       </c>
       <c r="E95" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F95" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -51116,10 +51127,10 @@
         <v>16</v>
       </c>
       <c r="E96" s="5">
-        <v>8.5</v>
+        <v>36.25</v>
       </c>
       <c r="F96" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -51136,10 +51147,10 @@
         <v>16</v>
       </c>
       <c r="E97" s="5">
-        <v>8.75</v>
+        <v>36.25</v>
       </c>
       <c r="F97" s="5">
-        <v>73.400319999999994</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -51156,10 +51167,10 @@
         <v>16</v>
       </c>
       <c r="E98" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F98" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -51176,10 +51187,10 @@
         <v>16</v>
       </c>
       <c r="E99" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F99" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -51196,10 +51207,10 @@
         <v>16</v>
       </c>
       <c r="E100" s="5">
-        <v>8</v>
+        <v>36.875</v>
       </c>
       <c r="F100" s="5">
-        <v>67.108863999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -51216,10 +51227,10 @@
         <v>16</v>
       </c>
       <c r="E101" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F101" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -51236,10 +51247,10 @@
         <v>16</v>
       </c>
       <c r="E102" s="5">
-        <v>8.5</v>
+        <v>35.625</v>
       </c>
       <c r="F102" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -51256,10 +51267,10 @@
         <v>16</v>
       </c>
       <c r="E103" s="5">
-        <v>8.75</v>
+        <v>36.625</v>
       </c>
       <c r="F103" s="5">
-        <v>73.400319999999994</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -51276,10 +51287,10 @@
         <v>16</v>
       </c>
       <c r="E104" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F104" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -51296,10 +51307,10 @@
         <v>16</v>
       </c>
       <c r="E105" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F105" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -51316,10 +51327,10 @@
         <v>16</v>
       </c>
       <c r="E106" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F106" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -51336,10 +51347,10 @@
         <v>16</v>
       </c>
       <c r="E107" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F107" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -51356,10 +51367,10 @@
         <v>16</v>
       </c>
       <c r="E108" s="5">
-        <v>8.375</v>
+        <v>35.875</v>
       </c>
       <c r="F108" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -51376,10 +51387,10 @@
         <v>16</v>
       </c>
       <c r="E109" s="5">
-        <v>35.875</v>
+        <v>36.5</v>
       </c>
       <c r="F109" s="5">
-        <v>300.94131199999998</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -51396,10 +51407,10 @@
         <v>16</v>
       </c>
       <c r="E110" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F110" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -51416,10 +51427,10 @@
         <v>16</v>
       </c>
       <c r="E111" s="5">
-        <v>35.5</v>
+        <v>35.75</v>
       </c>
       <c r="F111" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -51436,10 +51447,10 @@
         <v>16</v>
       </c>
       <c r="E112" s="5">
-        <v>35.125</v>
+        <v>35.75</v>
       </c>
       <c r="F112" s="5">
-        <v>294.649856</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -51456,10 +51467,10 @@
         <v>16</v>
       </c>
       <c r="E113" s="5">
-        <v>35.25</v>
+        <v>36.625</v>
       </c>
       <c r="F113" s="5">
-        <v>295.69843200000003</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -51476,10 +51487,10 @@
         <v>16</v>
       </c>
       <c r="E114" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F114" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -51496,10 +51507,10 @@
         <v>16</v>
       </c>
       <c r="E115" s="5">
-        <v>35.5</v>
+        <v>36.875</v>
       </c>
       <c r="F115" s="5">
-        <v>297.79558400000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -51516,10 +51527,10 @@
         <v>16</v>
       </c>
       <c r="E116" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F116" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -51536,10 +51547,10 @@
         <v>16</v>
       </c>
       <c r="E117" s="5">
-        <v>35.5</v>
+        <v>35.875</v>
       </c>
       <c r="F117" s="5">
-        <v>297.79558400000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -51556,10 +51567,10 @@
         <v>16</v>
       </c>
       <c r="E118" s="5">
-        <v>35.75</v>
+        <v>36.25</v>
       </c>
       <c r="F118" s="5">
-        <v>299.89273600000001</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -51576,10 +51587,10 @@
         <v>16</v>
       </c>
       <c r="E119" s="5">
-        <v>35.75</v>
+        <v>35.875</v>
       </c>
       <c r="F119" s="5">
-        <v>299.89273600000001</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -51596,10 +51607,10 @@
         <v>16</v>
       </c>
       <c r="E120" s="5">
-        <v>35.75</v>
+        <v>36.875</v>
       </c>
       <c r="F120" s="5">
-        <v>299.89273600000001</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -51616,10 +51627,10 @@
         <v>16</v>
       </c>
       <c r="E121" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F121" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -51636,10 +51647,10 @@
         <v>17</v>
       </c>
       <c r="E122" s="5">
-        <v>8.75</v>
+        <v>35.875</v>
       </c>
       <c r="F122" s="5">
-        <v>73.400319999999994</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -51656,10 +51667,10 @@
         <v>17</v>
       </c>
       <c r="E123" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F123" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -51676,10 +51687,10 @@
         <v>17</v>
       </c>
       <c r="E124" s="5">
-        <v>8.5</v>
+        <v>35.625</v>
       </c>
       <c r="F124" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -51696,10 +51707,10 @@
         <v>17</v>
       </c>
       <c r="E125" s="5">
-        <v>8.625</v>
+        <v>35.625</v>
       </c>
       <c r="F125" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -51716,10 +51727,10 @@
         <v>17</v>
       </c>
       <c r="E126" s="5">
-        <v>8.375</v>
+        <v>37</v>
       </c>
       <c r="F126" s="5">
-        <v>70.254592000000002</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -51736,10 +51747,10 @@
         <v>17</v>
       </c>
       <c r="E127" s="5">
-        <v>8.5</v>
+        <v>35.875</v>
       </c>
       <c r="F127" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -51756,10 +51767,10 @@
         <v>17</v>
       </c>
       <c r="E128" s="5">
-        <v>8.375</v>
+        <v>36.875</v>
       </c>
       <c r="F128" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -51776,10 +51787,10 @@
         <v>17</v>
       </c>
       <c r="E129" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F129" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -51796,10 +51807,10 @@
         <v>17</v>
       </c>
       <c r="E130" s="5">
-        <v>8.875</v>
+        <v>36.375</v>
       </c>
       <c r="F130" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -51816,10 +51827,10 @@
         <v>17</v>
       </c>
       <c r="E131" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F131" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -51836,10 +51847,10 @@
         <v>17</v>
       </c>
       <c r="E132" s="5">
-        <v>8.375</v>
+        <v>35.5</v>
       </c>
       <c r="F132" s="5">
-        <v>70.254592000000002</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -51856,10 +51867,10 @@
         <v>17</v>
       </c>
       <c r="E133" s="5">
-        <v>8.375</v>
+        <v>36.5</v>
       </c>
       <c r="F133" s="5">
-        <v>70.254592000000002</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -51876,10 +51887,10 @@
         <v>17</v>
       </c>
       <c r="E134" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F134" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -51896,10 +51907,10 @@
         <v>17</v>
       </c>
       <c r="E135" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F135" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -51916,10 +51927,10 @@
         <v>17</v>
       </c>
       <c r="E136" s="5">
-        <v>7.75</v>
+        <v>35.75</v>
       </c>
       <c r="F136" s="5">
-        <v>65.011712000000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -51936,10 +51947,10 @@
         <v>17</v>
       </c>
       <c r="E137" s="5">
-        <v>8.625</v>
+        <v>35.625</v>
       </c>
       <c r="F137" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -51956,10 +51967,10 @@
         <v>17</v>
       </c>
       <c r="E138" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F138" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -51976,10 +51987,10 @@
         <v>17</v>
       </c>
       <c r="E139" s="5">
-        <v>35.75</v>
+        <v>36.625</v>
       </c>
       <c r="F139" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -51996,10 +52007,10 @@
         <v>17</v>
       </c>
       <c r="E140" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F140" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -52016,10 +52027,10 @@
         <v>17</v>
       </c>
       <c r="E141" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F141" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -52056,10 +52067,10 @@
         <v>17</v>
       </c>
       <c r="E143" s="5">
-        <v>35.25</v>
+        <v>36.625</v>
       </c>
       <c r="F143" s="5">
-        <v>295.69843200000003</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -52076,10 +52087,10 @@
         <v>17</v>
       </c>
       <c r="E144" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F144" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -52116,10 +52127,10 @@
         <v>17</v>
       </c>
       <c r="E146" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F146" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -52136,10 +52147,10 @@
         <v>17</v>
       </c>
       <c r="E147" s="5">
-        <v>35.625</v>
+        <v>35.75</v>
       </c>
       <c r="F147" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -52156,10 +52167,10 @@
         <v>17</v>
       </c>
       <c r="E148" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F148" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -52176,10 +52187,10 @@
         <v>17</v>
       </c>
       <c r="E149" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F149" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -52196,10 +52207,10 @@
         <v>17</v>
       </c>
       <c r="E150" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F150" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -52216,10 +52227,10 @@
         <v>17</v>
       </c>
       <c r="E151" s="5">
-        <v>35.75</v>
+        <v>37</v>
       </c>
       <c r="F151" s="5">
-        <v>299.89273600000001</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -52236,10 +52247,10 @@
         <v>18</v>
       </c>
       <c r="E152" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F152" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -52256,10 +52267,10 @@
         <v>18</v>
       </c>
       <c r="E153" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F153" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -52276,10 +52287,10 @@
         <v>18</v>
       </c>
       <c r="E154" s="5">
-        <v>8.375</v>
+        <v>35.5</v>
       </c>
       <c r="F154" s="5">
-        <v>70.254592000000002</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -52296,10 +52307,10 @@
         <v>18</v>
       </c>
       <c r="E155" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F155" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -52316,10 +52327,10 @@
         <v>18</v>
       </c>
       <c r="E156" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F156" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -52336,10 +52347,10 @@
         <v>18</v>
       </c>
       <c r="E157" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F157" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -52356,10 +52367,10 @@
         <v>18</v>
       </c>
       <c r="E158" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F158" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -52376,10 +52387,10 @@
         <v>18</v>
       </c>
       <c r="E159" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F159" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -52396,10 +52407,10 @@
         <v>18</v>
       </c>
       <c r="E160" s="5">
-        <v>8.125</v>
+        <v>36.375</v>
       </c>
       <c r="F160" s="5">
-        <v>68.157439999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -52416,10 +52427,10 @@
         <v>18</v>
       </c>
       <c r="E161" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F161" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -52436,10 +52447,10 @@
         <v>18</v>
       </c>
       <c r="E162" s="5">
-        <v>8.75</v>
+        <v>36.875</v>
       </c>
       <c r="F162" s="5">
-        <v>73.400319999999994</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -52456,10 +52467,10 @@
         <v>18</v>
       </c>
       <c r="E163" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F163" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -52476,10 +52487,10 @@
         <v>18</v>
       </c>
       <c r="E164" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F164" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -52496,10 +52507,10 @@
         <v>18</v>
       </c>
       <c r="E165" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F165" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -52516,10 +52527,10 @@
         <v>18</v>
       </c>
       <c r="E166" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F166" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -52536,10 +52547,10 @@
         <v>18</v>
       </c>
       <c r="E167" s="5">
-        <v>8.5</v>
+        <v>36.25</v>
       </c>
       <c r="F167" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -52556,10 +52567,10 @@
         <v>18</v>
       </c>
       <c r="E168" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F168" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -52576,10 +52587,10 @@
         <v>18</v>
       </c>
       <c r="E169" s="5">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="F169" s="5">
-        <v>299.89273600000001</v>
+        <v>301.98988800000001</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -52596,10 +52607,10 @@
         <v>18</v>
       </c>
       <c r="E170" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F170" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -52616,10 +52627,10 @@
         <v>18</v>
       </c>
       <c r="E171" s="5">
-        <v>35.625</v>
+        <v>36.375</v>
       </c>
       <c r="F171" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -52636,10 +52647,10 @@
         <v>18</v>
       </c>
       <c r="E172" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F172" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -52656,10 +52667,10 @@
         <v>18</v>
       </c>
       <c r="E173" s="5">
-        <v>35.75</v>
+        <v>36.75</v>
       </c>
       <c r="F173" s="5">
-        <v>299.89273600000001</v>
+        <v>308.28134399999999</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -52676,10 +52687,10 @@
         <v>18</v>
       </c>
       <c r="E174" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F174" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -52696,10 +52707,10 @@
         <v>18</v>
       </c>
       <c r="E175" s="5">
-        <v>34.125</v>
+        <v>36.875</v>
       </c>
       <c r="F175" s="5">
-        <v>286.26124800000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -52716,10 +52727,10 @@
         <v>18</v>
       </c>
       <c r="E176" s="5">
-        <v>35.25</v>
+        <v>36.875</v>
       </c>
       <c r="F176" s="5">
-        <v>295.69843200000003</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -52736,10 +52747,10 @@
         <v>18</v>
       </c>
       <c r="E177" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F177" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -52796,10 +52807,10 @@
         <v>18</v>
       </c>
       <c r="E180" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F180" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -52816,10 +52827,10 @@
         <v>18</v>
       </c>
       <c r="E181" s="5">
-        <v>35.875</v>
+        <v>36</v>
       </c>
       <c r="F181" s="5">
-        <v>300.94131199999998</v>
+        <v>301.98988800000001</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -52836,10 +52847,10 @@
         <v>19</v>
       </c>
       <c r="E182" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F182" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -52856,10 +52867,10 @@
         <v>19</v>
       </c>
       <c r="E183" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F183" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -52876,10 +52887,10 @@
         <v>19</v>
       </c>
       <c r="E184" s="5">
-        <v>8.75</v>
+        <v>35.5</v>
       </c>
       <c r="F184" s="5">
-        <v>73.400319999999994</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -52896,10 +52907,10 @@
         <v>19</v>
       </c>
       <c r="E185" s="5">
-        <v>8.5</v>
+        <v>35.5</v>
       </c>
       <c r="F185" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -52916,10 +52927,10 @@
         <v>19</v>
       </c>
       <c r="E186" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F186" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -52936,10 +52947,10 @@
         <v>19</v>
       </c>
       <c r="E187" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F187" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -52956,10 +52967,10 @@
         <v>19</v>
       </c>
       <c r="E188" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F188" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -52976,10 +52987,10 @@
         <v>19</v>
       </c>
       <c r="E189" s="5">
-        <v>8.5</v>
+        <v>37</v>
       </c>
       <c r="F189" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -52996,10 +53007,10 @@
         <v>19</v>
       </c>
       <c r="E190" s="5">
-        <v>8.875</v>
+        <v>36.875</v>
       </c>
       <c r="F190" s="5">
-        <v>74.448896000000005</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -53016,10 +53027,10 @@
         <v>19</v>
       </c>
       <c r="E191" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F191" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -53036,10 +53047,10 @@
         <v>19</v>
       </c>
       <c r="E192" s="5">
-        <v>8.375</v>
+        <v>35.625</v>
       </c>
       <c r="F192" s="5">
-        <v>70.254592000000002</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -53056,10 +53067,10 @@
         <v>19</v>
       </c>
       <c r="E193" s="5">
-        <v>8.75</v>
+        <v>36.625</v>
       </c>
       <c r="F193" s="5">
-        <v>73.400319999999994</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -53076,10 +53087,10 @@
         <v>19</v>
       </c>
       <c r="E194" s="5">
-        <v>8.75</v>
+        <v>36.5</v>
       </c>
       <c r="F194" s="5">
-        <v>73.400319999999994</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -53096,10 +53107,10 @@
         <v>19</v>
       </c>
       <c r="E195" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F195" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -53116,10 +53127,10 @@
         <v>19</v>
       </c>
       <c r="E196" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F196" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -53136,10 +53147,10 @@
         <v>19</v>
       </c>
       <c r="E197" s="5">
-        <v>8.625</v>
+        <v>35.625</v>
       </c>
       <c r="F197" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -53156,10 +53167,10 @@
         <v>19</v>
       </c>
       <c r="E198" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F198" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -53176,10 +53187,10 @@
         <v>19</v>
       </c>
       <c r="E199" s="5">
-        <v>35.875</v>
+        <v>36.625</v>
       </c>
       <c r="F199" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -53196,10 +53207,10 @@
         <v>19</v>
       </c>
       <c r="E200" s="5">
-        <v>35.25</v>
+        <v>36.25</v>
       </c>
       <c r="F200" s="5">
-        <v>295.69843200000003</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -53216,10 +53227,10 @@
         <v>19</v>
       </c>
       <c r="E201" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F201" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -53256,10 +53267,10 @@
         <v>19</v>
       </c>
       <c r="E203" s="5">
-        <v>35.25</v>
+        <v>36</v>
       </c>
       <c r="F203" s="5">
-        <v>295.69843200000003</v>
+        <v>301.98988800000001</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -53276,10 +53287,10 @@
         <v>19</v>
       </c>
       <c r="E204" s="5">
-        <v>35.875</v>
+        <v>36.375</v>
       </c>
       <c r="F204" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -53316,10 +53327,10 @@
         <v>19</v>
       </c>
       <c r="E206" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F206" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -53336,10 +53347,10 @@
         <v>19</v>
       </c>
       <c r="E207" s="5">
-        <v>35.5</v>
+        <v>35.75</v>
       </c>
       <c r="F207" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -53356,10 +53367,10 @@
         <v>19</v>
       </c>
       <c r="E208" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F208" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -53376,10 +53387,10 @@
         <v>19</v>
       </c>
       <c r="E209" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F209" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -53396,10 +53407,10 @@
         <v>19</v>
       </c>
       <c r="E210" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F210" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -53416,10 +53427,10 @@
         <v>19</v>
       </c>
       <c r="E211" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F211" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -53436,10 +53447,10 @@
         <v>20</v>
       </c>
       <c r="E212" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F212" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -53456,10 +53467,10 @@
         <v>20</v>
       </c>
       <c r="E213" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F213" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -53476,10 +53487,10 @@
         <v>20</v>
       </c>
       <c r="E214" s="5">
-        <v>8.5</v>
+        <v>37</v>
       </c>
       <c r="F214" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -53496,10 +53507,10 @@
         <v>20</v>
       </c>
       <c r="E215" s="5">
-        <v>8.625</v>
+        <v>35.625</v>
       </c>
       <c r="F215" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -53516,10 +53527,10 @@
         <v>20</v>
       </c>
       <c r="E216" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F216" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -53536,10 +53547,10 @@
         <v>20</v>
       </c>
       <c r="E217" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F217" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -53556,10 +53567,10 @@
         <v>20</v>
       </c>
       <c r="E218" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F218" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -53576,10 +53587,10 @@
         <v>20</v>
       </c>
       <c r="E219" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F219" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -53596,10 +53607,10 @@
         <v>20</v>
       </c>
       <c r="E220" s="5">
-        <v>8.875</v>
+        <v>36.375</v>
       </c>
       <c r="F220" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -53616,10 +53627,10 @@
         <v>20</v>
       </c>
       <c r="E221" s="5">
-        <v>8.5</v>
+        <v>35.875</v>
       </c>
       <c r="F221" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -53636,10 +53647,10 @@
         <v>20</v>
       </c>
       <c r="E222" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F222" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -53656,10 +53667,10 @@
         <v>20</v>
       </c>
       <c r="E223" s="5">
-        <v>8.5</v>
+        <v>36.5</v>
       </c>
       <c r="F223" s="5">
-        <v>71.303167999999999</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -53676,10 +53687,10 @@
         <v>20</v>
       </c>
       <c r="E224" s="5">
-        <v>8.75</v>
+        <v>36.875</v>
       </c>
       <c r="F224" s="5">
-        <v>73.400319999999994</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -53696,10 +53707,10 @@
         <v>20</v>
       </c>
       <c r="E225" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F225" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -53716,10 +53727,10 @@
         <v>20</v>
       </c>
       <c r="E226" s="5">
-        <v>8.625</v>
+        <v>36.25</v>
       </c>
       <c r="F226" s="5">
-        <v>72.351743999999997</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -53736,10 +53747,10 @@
         <v>20</v>
       </c>
       <c r="E227" s="5">
-        <v>8.625</v>
+        <v>35.5</v>
       </c>
       <c r="F227" s="5">
-        <v>72.351743999999997</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -53756,10 +53767,10 @@
         <v>20</v>
       </c>
       <c r="E228" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F228" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -53776,10 +53787,10 @@
         <v>20</v>
       </c>
       <c r="E229" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F229" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -53796,10 +53807,10 @@
         <v>20</v>
       </c>
       <c r="E230" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F230" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -53816,10 +53827,10 @@
         <v>20</v>
       </c>
       <c r="E231" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F231" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -53836,10 +53847,10 @@
         <v>20</v>
       </c>
       <c r="E232" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F232" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -53856,10 +53867,10 @@
         <v>20</v>
       </c>
       <c r="E233" s="5">
-        <v>35.875</v>
+        <v>36.625</v>
       </c>
       <c r="F233" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -53876,10 +53887,10 @@
         <v>20</v>
       </c>
       <c r="E234" s="5">
-        <v>35.125</v>
+        <v>36.25</v>
       </c>
       <c r="F234" s="5">
-        <v>294.649856</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -53896,10 +53907,10 @@
         <v>20</v>
       </c>
       <c r="E235" s="5">
-        <v>35.625</v>
+        <v>37</v>
       </c>
       <c r="F235" s="5">
-        <v>298.84415999999999</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -53936,10 +53947,10 @@
         <v>20</v>
       </c>
       <c r="E237" s="5">
-        <v>35.625</v>
+        <v>36.375</v>
       </c>
       <c r="F237" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -53976,10 +53987,10 @@
         <v>20</v>
       </c>
       <c r="E239" s="5">
-        <v>35.875</v>
+        <v>35.75</v>
       </c>
       <c r="F239" s="5">
-        <v>300.94131199999998</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -53996,10 +54007,10 @@
         <v>20</v>
       </c>
       <c r="E240" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F240" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -54016,10 +54027,10 @@
         <v>20</v>
       </c>
       <c r="E241" s="5">
-        <v>35.875</v>
+        <v>36.125</v>
       </c>
       <c r="F241" s="5">
-        <v>300.94131199999998</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -54036,10 +54047,10 @@
         <v>8</v>
       </c>
       <c r="E242" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F242" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -54056,10 +54067,10 @@
         <v>8</v>
       </c>
       <c r="E243" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F243" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -54076,10 +54087,10 @@
         <v>8</v>
       </c>
       <c r="E244" s="5">
-        <v>8.625</v>
+        <v>35.625</v>
       </c>
       <c r="F244" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -54096,10 +54107,10 @@
         <v>8</v>
       </c>
       <c r="E245" s="5">
-        <v>8.5</v>
+        <v>37</v>
       </c>
       <c r="F245" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -54116,10 +54127,10 @@
         <v>8</v>
       </c>
       <c r="E246" s="5">
-        <v>8.5</v>
+        <v>36.25</v>
       </c>
       <c r="F246" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -54136,10 +54147,10 @@
         <v>8</v>
       </c>
       <c r="E247" s="5">
-        <v>8.375</v>
+        <v>35.875</v>
       </c>
       <c r="F247" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -54156,10 +54167,10 @@
         <v>8</v>
       </c>
       <c r="E248" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F248" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -54176,10 +54187,10 @@
         <v>8</v>
       </c>
       <c r="E249" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F249" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -54196,10 +54207,10 @@
         <v>8</v>
       </c>
       <c r="E250" s="5">
-        <v>8.875</v>
+        <v>36.375</v>
       </c>
       <c r="F250" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -54216,10 +54227,10 @@
         <v>8</v>
       </c>
       <c r="E251" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F251" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -54236,10 +54247,10 @@
         <v>8</v>
       </c>
       <c r="E252" s="5">
-        <v>8.75</v>
+        <v>35.5</v>
       </c>
       <c r="F252" s="5">
-        <v>73.400319999999994</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -54256,10 +54267,10 @@
         <v>8</v>
       </c>
       <c r="E253" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F253" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -54276,10 +54287,10 @@
         <v>8</v>
       </c>
       <c r="E254" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F254" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -54296,10 +54307,10 @@
         <v>8</v>
       </c>
       <c r="E255" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F255" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -54316,10 +54327,10 @@
         <v>8</v>
       </c>
       <c r="E256" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F256" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -54336,10 +54347,10 @@
         <v>8</v>
       </c>
       <c r="E257" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F257" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -54356,10 +54367,10 @@
         <v>8</v>
       </c>
       <c r="E258" s="5">
-        <v>8.375</v>
+        <v>36.25</v>
       </c>
       <c r="F258" s="5">
-        <v>70.254592000000002</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -54376,10 +54387,10 @@
         <v>8</v>
       </c>
       <c r="E259" s="5">
-        <v>35.875</v>
+        <v>36.125</v>
       </c>
       <c r="F259" s="5">
-        <v>300.94131199999998</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -54396,10 +54407,10 @@
         <v>8</v>
       </c>
       <c r="E260" s="5">
-        <v>35.875</v>
+        <v>36.875</v>
       </c>
       <c r="F260" s="5">
-        <v>300.94131199999998</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -54416,10 +54427,10 @@
         <v>8</v>
       </c>
       <c r="E261" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F261" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -54436,10 +54447,10 @@
         <v>8</v>
       </c>
       <c r="E262" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F262" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -54456,10 +54467,10 @@
         <v>8</v>
       </c>
       <c r="E263" s="5">
-        <v>35.75</v>
+        <v>37.375</v>
       </c>
       <c r="F263" s="5">
-        <v>299.89273600000001</v>
+        <v>313.524224</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -54476,10 +54487,10 @@
         <v>8</v>
       </c>
       <c r="E264" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F264" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -54496,10 +54507,10 @@
         <v>8</v>
       </c>
       <c r="E265" s="5">
-        <v>35.625</v>
+        <v>36.875</v>
       </c>
       <c r="F265" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -54516,10 +54527,10 @@
         <v>8</v>
       </c>
       <c r="E266" s="5">
-        <v>35.25</v>
+        <v>36.875</v>
       </c>
       <c r="F266" s="5">
-        <v>295.69843200000003</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -54536,10 +54547,10 @@
         <v>8</v>
       </c>
       <c r="E267" s="5">
-        <v>35.5</v>
+        <v>35.75</v>
       </c>
       <c r="F267" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -54556,10 +54567,10 @@
         <v>8</v>
       </c>
       <c r="E268" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F268" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -54576,10 +54587,10 @@
         <v>8</v>
       </c>
       <c r="E269" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F269" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -54616,10 +54627,10 @@
         <v>8</v>
       </c>
       <c r="E271" s="5">
-        <v>35.875</v>
+        <v>37</v>
       </c>
       <c r="F271" s="5">
-        <v>300.94131199999998</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -54636,10 +54647,10 @@
         <v>9</v>
       </c>
       <c r="E272" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F272" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -54656,10 +54667,10 @@
         <v>9</v>
       </c>
       <c r="E273" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F273" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -54676,10 +54687,10 @@
         <v>9</v>
       </c>
       <c r="E274" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F274" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -54696,10 +54707,10 @@
         <v>9</v>
       </c>
       <c r="E275" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F275" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -54716,10 +54727,10 @@
         <v>9</v>
       </c>
       <c r="E276" s="5">
-        <v>8.375</v>
+        <v>35.875</v>
       </c>
       <c r="F276" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -54736,10 +54747,10 @@
         <v>9</v>
       </c>
       <c r="E277" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F277" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -54756,10 +54767,10 @@
         <v>9</v>
       </c>
       <c r="E278" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F278" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -54776,10 +54787,10 @@
         <v>9</v>
       </c>
       <c r="E279" s="5">
-        <v>8.375</v>
+        <v>36.875</v>
       </c>
       <c r="F279" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -54796,10 +54807,10 @@
         <v>9</v>
       </c>
       <c r="E280" s="5">
-        <v>8.125</v>
+        <v>36.375</v>
       </c>
       <c r="F280" s="5">
-        <v>68.157439999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -54816,10 +54827,10 @@
         <v>9</v>
       </c>
       <c r="E281" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F281" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -54836,10 +54847,10 @@
         <v>9</v>
       </c>
       <c r="E282" s="5">
-        <v>8.375</v>
+        <v>36.875</v>
       </c>
       <c r="F282" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -54856,10 +54867,10 @@
         <v>9</v>
       </c>
       <c r="E283" s="5">
-        <v>8.625</v>
+        <v>36.75</v>
       </c>
       <c r="F283" s="5">
-        <v>72.351743999999997</v>
+        <v>308.28134399999999</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -54876,10 +54887,10 @@
         <v>9</v>
       </c>
       <c r="E284" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F284" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -54896,10 +54907,10 @@
         <v>9</v>
       </c>
       <c r="E285" s="5">
-        <v>8.5</v>
+        <v>36.25</v>
       </c>
       <c r="F285" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -54916,10 +54927,10 @@
         <v>9</v>
       </c>
       <c r="E286" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F286" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -54936,10 +54947,10 @@
         <v>9</v>
       </c>
       <c r="E287" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F287" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -54956,10 +54967,10 @@
         <v>9</v>
       </c>
       <c r="E288" s="5">
-        <v>8.5</v>
+        <v>35.875</v>
       </c>
       <c r="F288" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -54976,10 +54987,10 @@
         <v>9</v>
       </c>
       <c r="E289" s="5">
-        <v>35.25</v>
+        <v>35.625</v>
       </c>
       <c r="F289" s="5">
-        <v>295.69843200000003</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -54996,10 +55007,10 @@
         <v>9</v>
       </c>
       <c r="E290" s="5">
-        <v>35.125</v>
+        <v>36.375</v>
       </c>
       <c r="F290" s="5">
-        <v>294.649856</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -55016,10 +55027,10 @@
         <v>9</v>
       </c>
       <c r="E291" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F291" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -55036,10 +55047,10 @@
         <v>9</v>
       </c>
       <c r="E292" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F292" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -55056,10 +55067,10 @@
         <v>9</v>
       </c>
       <c r="E293" s="5">
-        <v>35.875</v>
+        <v>36.625</v>
       </c>
       <c r="F293" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -55076,10 +55087,10 @@
         <v>9</v>
       </c>
       <c r="E294" s="5">
-        <v>35.25</v>
+        <v>36.25</v>
       </c>
       <c r="F294" s="5">
-        <v>295.69843200000003</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -55096,10 +55107,10 @@
         <v>9</v>
       </c>
       <c r="E295" s="5">
-        <v>35.5</v>
+        <v>36.875</v>
       </c>
       <c r="F295" s="5">
-        <v>297.79558400000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -55116,10 +55127,10 @@
         <v>9</v>
       </c>
       <c r="E296" s="5">
-        <v>35.75</v>
+        <v>37.5</v>
       </c>
       <c r="F296" s="5">
-        <v>299.89273600000001</v>
+        <v>314.57279999999997</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -55136,10 +55147,10 @@
         <v>9</v>
       </c>
       <c r="E297" s="5">
-        <v>35.625</v>
+        <v>35.75</v>
       </c>
       <c r="F297" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -55156,10 +55167,10 @@
         <v>9</v>
       </c>
       <c r="E298" s="5">
-        <v>35.875</v>
+        <v>36.25</v>
       </c>
       <c r="F298" s="5">
-        <v>300.94131199999998</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -55176,10 +55187,10 @@
         <v>9</v>
       </c>
       <c r="E299" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F299" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -55216,10 +55227,10 @@
         <v>9</v>
       </c>
       <c r="E301" s="5">
-        <v>35.125</v>
+        <v>36.5</v>
       </c>
       <c r="F301" s="5">
-        <v>294.649856</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -55236,10 +55247,10 @@
         <v>10</v>
       </c>
       <c r="E302" s="5">
-        <v>8.5</v>
+        <v>35.875</v>
       </c>
       <c r="F302" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -55256,10 +55267,10 @@
         <v>10</v>
       </c>
       <c r="E303" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F303" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -55276,10 +55287,10 @@
         <v>10</v>
       </c>
       <c r="E304" s="5">
-        <v>8.5</v>
+        <v>35.5</v>
       </c>
       <c r="F304" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -55296,10 +55307,10 @@
         <v>10</v>
       </c>
       <c r="E305" s="5">
-        <v>8.625</v>
+        <v>35.5</v>
       </c>
       <c r="F305" s="5">
-        <v>72.351743999999997</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -55316,10 +55327,10 @@
         <v>10</v>
       </c>
       <c r="E306" s="5">
-        <v>8.75</v>
+        <v>36.875</v>
       </c>
       <c r="F306" s="5">
-        <v>73.400319999999994</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -55336,10 +55347,10 @@
         <v>10</v>
       </c>
       <c r="E307" s="5">
-        <v>8.5</v>
+        <v>36.25</v>
       </c>
       <c r="F307" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -55356,10 +55367,10 @@
         <v>10</v>
       </c>
       <c r="E308" s="5">
-        <v>8.5</v>
+        <v>37</v>
       </c>
       <c r="F308" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -55376,10 +55387,10 @@
         <v>10</v>
       </c>
       <c r="E309" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F309" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -55396,10 +55407,10 @@
         <v>10</v>
       </c>
       <c r="E310" s="5">
-        <v>8.875</v>
+        <v>36.375</v>
       </c>
       <c r="F310" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -55416,10 +55427,10 @@
         <v>10</v>
       </c>
       <c r="E311" s="5">
-        <v>8.75</v>
+        <v>35.875</v>
       </c>
       <c r="F311" s="5">
-        <v>73.400319999999994</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -55436,10 +55447,10 @@
         <v>10</v>
       </c>
       <c r="E312" s="5">
-        <v>8.75</v>
+        <v>37</v>
       </c>
       <c r="F312" s="5">
-        <v>73.400319999999994</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -55456,10 +55467,10 @@
         <v>10</v>
       </c>
       <c r="E313" s="5">
-        <v>8.5</v>
+        <v>36.125</v>
       </c>
       <c r="F313" s="5">
-        <v>71.303167999999999</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -55476,10 +55487,10 @@
         <v>10</v>
       </c>
       <c r="E314" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F314" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -55496,10 +55507,10 @@
         <v>10</v>
       </c>
       <c r="E315" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F315" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -55516,10 +55527,10 @@
         <v>10</v>
       </c>
       <c r="E316" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F316" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -55536,10 +55547,10 @@
         <v>10</v>
       </c>
       <c r="E317" s="5">
-        <v>8.625</v>
+        <v>35.875</v>
       </c>
       <c r="F317" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -55556,10 +55567,10 @@
         <v>10</v>
       </c>
       <c r="E318" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F318" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -55576,10 +55587,10 @@
         <v>10</v>
       </c>
       <c r="E319" s="5">
-        <v>35.75</v>
+        <v>35.625</v>
       </c>
       <c r="F319" s="5">
-        <v>299.89273600000001</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -55596,10 +55607,10 @@
         <v>10</v>
       </c>
       <c r="E320" s="5">
-        <v>35.875</v>
+        <v>36.375</v>
       </c>
       <c r="F320" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -55616,10 +55627,10 @@
         <v>10</v>
       </c>
       <c r="E321" s="5">
-        <v>35.625</v>
+        <v>36.875</v>
       </c>
       <c r="F321" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -55636,10 +55647,10 @@
         <v>10</v>
       </c>
       <c r="E322" s="5">
-        <v>35.75</v>
+        <v>36.25</v>
       </c>
       <c r="F322" s="5">
-        <v>299.89273600000001</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -55656,10 +55667,10 @@
         <v>10</v>
       </c>
       <c r="E323" s="5">
-        <v>35.875</v>
+        <v>36.625</v>
       </c>
       <c r="F323" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -55676,10 +55687,10 @@
         <v>10</v>
       </c>
       <c r="E324" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F324" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -55696,10 +55707,10 @@
         <v>10</v>
       </c>
       <c r="E325" s="5">
-        <v>35.5</v>
+        <v>35.625</v>
       </c>
       <c r="F325" s="5">
-        <v>297.79558400000002</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -55716,10 +55727,10 @@
         <v>10</v>
       </c>
       <c r="E326" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F326" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -55736,10 +55747,10 @@
         <v>10</v>
       </c>
       <c r="E327" s="5">
-        <v>35.5</v>
+        <v>35.875</v>
       </c>
       <c r="F327" s="5">
-        <v>297.79558400000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -55756,10 +55767,10 @@
         <v>10</v>
       </c>
       <c r="E328" s="5">
-        <v>35.125</v>
+        <v>35.875</v>
       </c>
       <c r="F328" s="5">
-        <v>294.649856</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -55776,10 +55787,10 @@
         <v>10</v>
       </c>
       <c r="E329" s="5">
-        <v>36.375</v>
+        <v>35.75</v>
       </c>
       <c r="F329" s="5">
-        <v>305.13561600000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -55816,10 +55827,10 @@
         <v>10</v>
       </c>
       <c r="E331" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F331" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -55836,10 +55847,10 @@
         <v>11</v>
       </c>
       <c r="E332" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F332" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -55856,10 +55867,10 @@
         <v>11</v>
       </c>
       <c r="E333" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F333" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -55876,10 +55887,10 @@
         <v>11</v>
       </c>
       <c r="E334" s="5">
-        <v>8.625</v>
+        <v>35.625</v>
       </c>
       <c r="F334" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -55896,10 +55907,10 @@
         <v>11</v>
       </c>
       <c r="E335" s="5">
-        <v>8.5</v>
+        <v>35.625</v>
       </c>
       <c r="F335" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -55916,10 +55927,10 @@
         <v>11</v>
       </c>
       <c r="E336" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F336" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -55936,10 +55947,10 @@
         <v>11</v>
       </c>
       <c r="E337" s="5">
-        <v>8.625</v>
+        <v>37</v>
       </c>
       <c r="F337" s="5">
-        <v>72.351743999999997</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -55956,10 +55967,10 @@
         <v>11</v>
       </c>
       <c r="E338" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F338" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -55976,10 +55987,10 @@
         <v>11</v>
       </c>
       <c r="E339" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F339" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -55996,10 +56007,10 @@
         <v>11</v>
       </c>
       <c r="E340" s="5">
-        <v>8.125</v>
+        <v>36.25</v>
       </c>
       <c r="F340" s="5">
-        <v>68.157439999999994</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -56016,10 +56027,10 @@
         <v>11</v>
       </c>
       <c r="E341" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F341" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -56036,10 +56047,10 @@
         <v>11</v>
       </c>
       <c r="E342" s="5">
-        <v>8.375</v>
+        <v>36.875</v>
       </c>
       <c r="F342" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -56056,10 +56067,10 @@
         <v>11</v>
       </c>
       <c r="E343" s="5">
-        <v>8.75</v>
+        <v>36.625</v>
       </c>
       <c r="F343" s="5">
-        <v>73.400319999999994</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -56076,10 +56087,10 @@
         <v>11</v>
       </c>
       <c r="E344" s="5">
-        <v>7.875</v>
+        <v>35.75</v>
       </c>
       <c r="F344" s="5">
-        <v>66.060288</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -56096,10 +56107,10 @@
         <v>11</v>
       </c>
       <c r="E345" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F345" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -56116,10 +56127,10 @@
         <v>11</v>
       </c>
       <c r="E346" s="5">
-        <v>7.875</v>
+        <v>36.375</v>
       </c>
       <c r="F346" s="5">
-        <v>66.060288</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -56136,10 +56147,10 @@
         <v>11</v>
       </c>
       <c r="E347" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F347" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -56156,10 +56167,10 @@
         <v>11</v>
       </c>
       <c r="E348" s="5">
-        <v>8.375</v>
+        <v>35.75</v>
       </c>
       <c r="F348" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -56176,10 +56187,10 @@
         <v>11</v>
       </c>
       <c r="E349" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F349" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -56196,10 +56207,10 @@
         <v>11</v>
       </c>
       <c r="E350" s="5">
-        <v>35.75</v>
+        <v>36.25</v>
       </c>
       <c r="F350" s="5">
-        <v>299.89273600000001</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -56216,10 +56227,10 @@
         <v>11</v>
       </c>
       <c r="E351" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F351" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -56236,10 +56247,10 @@
         <v>11</v>
       </c>
       <c r="E352" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F352" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -56256,10 +56267,10 @@
         <v>11</v>
       </c>
       <c r="E353" s="5">
-        <v>35.125</v>
+        <v>36.125</v>
       </c>
       <c r="F353" s="5">
-        <v>294.649856</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -56276,10 +56287,10 @@
         <v>11</v>
       </c>
       <c r="E354" s="5">
-        <v>35.75</v>
+        <v>37</v>
       </c>
       <c r="F354" s="5">
-        <v>299.89273600000001</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -56296,10 +56307,10 @@
         <v>11</v>
       </c>
       <c r="E355" s="5">
-        <v>35.625</v>
+        <v>36.875</v>
       </c>
       <c r="F355" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -56316,10 +56327,10 @@
         <v>11</v>
       </c>
       <c r="E356" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F356" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -56336,10 +56347,10 @@
         <v>11</v>
       </c>
       <c r="E357" s="5">
-        <v>35.625</v>
+        <v>36.25</v>
       </c>
       <c r="F357" s="5">
-        <v>298.84415999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -56356,10 +56367,10 @@
         <v>11</v>
       </c>
       <c r="E358" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F358" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -56376,10 +56387,10 @@
         <v>11</v>
       </c>
       <c r="E359" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F359" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -56396,10 +56407,10 @@
         <v>11</v>
       </c>
       <c r="E360" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F360" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -56416,10 +56427,10 @@
         <v>11</v>
       </c>
       <c r="E361" s="5">
-        <v>35.875</v>
+        <v>36.125</v>
       </c>
       <c r="F361" s="5">
-        <v>300.94131199999998</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -56436,10 +56447,10 @@
         <v>12</v>
       </c>
       <c r="E362" s="5">
-        <v>8.75</v>
+        <v>36.25</v>
       </c>
       <c r="F362" s="5">
-        <v>73.400319999999994</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -56456,10 +56467,10 @@
         <v>12</v>
       </c>
       <c r="E363" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F363" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -56476,10 +56487,10 @@
         <v>12</v>
       </c>
       <c r="E364" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F364" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -56496,10 +56507,10 @@
         <v>12</v>
       </c>
       <c r="E365" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F365" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -56516,10 +56527,10 @@
         <v>12</v>
       </c>
       <c r="E366" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F366" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -56536,10 +56547,10 @@
         <v>12</v>
       </c>
       <c r="E367" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F367" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -56556,10 +56567,10 @@
         <v>12</v>
       </c>
       <c r="E368" s="5">
-        <v>8.5</v>
+        <v>36.25</v>
       </c>
       <c r="F368" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -56576,10 +56587,10 @@
         <v>12</v>
       </c>
       <c r="E369" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F369" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -56596,10 +56607,10 @@
         <v>12</v>
       </c>
       <c r="E370" s="5">
-        <v>8.875</v>
+        <v>36.375</v>
       </c>
       <c r="F370" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -56616,10 +56627,10 @@
         <v>12</v>
       </c>
       <c r="E371" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F371" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -56636,10 +56647,10 @@
         <v>12</v>
       </c>
       <c r="E372" s="5">
-        <v>8.5</v>
+        <v>35.5</v>
       </c>
       <c r="F372" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -56656,10 +56667,10 @@
         <v>12</v>
       </c>
       <c r="E373" s="5">
-        <v>8.375</v>
+        <v>36</v>
       </c>
       <c r="F373" s="5">
-        <v>70.254592000000002</v>
+        <v>301.98988800000001</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -56676,10 +56687,10 @@
         <v>12</v>
       </c>
       <c r="E374" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F374" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -56696,10 +56707,10 @@
         <v>12</v>
       </c>
       <c r="E375" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F375" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -56716,10 +56727,10 @@
         <v>12</v>
       </c>
       <c r="E376" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F376" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -56736,10 +56747,10 @@
         <v>12</v>
       </c>
       <c r="E377" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F377" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -56756,10 +56767,10 @@
         <v>12</v>
       </c>
       <c r="E378" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F378" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -56776,10 +56787,10 @@
         <v>12</v>
       </c>
       <c r="E379" s="5">
-        <v>35.75</v>
+        <v>36.125</v>
       </c>
       <c r="F379" s="5">
-        <v>299.89273600000001</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -56796,10 +56807,10 @@
         <v>12</v>
       </c>
       <c r="E380" s="5">
-        <v>35.25</v>
+        <v>37</v>
       </c>
       <c r="F380" s="5">
-        <v>295.69843200000003</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -56816,10 +56827,10 @@
         <v>12</v>
       </c>
       <c r="E381" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F381" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -56836,10 +56847,10 @@
         <v>12</v>
       </c>
       <c r="E382" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F382" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -56856,10 +56867,10 @@
         <v>12</v>
       </c>
       <c r="E383" s="5">
-        <v>35.875</v>
+        <v>36.625</v>
       </c>
       <c r="F383" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -56876,10 +56887,10 @@
         <v>12</v>
       </c>
       <c r="E384" s="5">
-        <v>35.875</v>
+        <v>36.25</v>
       </c>
       <c r="F384" s="5">
-        <v>300.94131199999998</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -56916,10 +56927,10 @@
         <v>12</v>
       </c>
       <c r="E386" s="5">
-        <v>35.25</v>
+        <v>36.25</v>
       </c>
       <c r="F386" s="5">
-        <v>295.69843200000003</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -56936,10 +56947,10 @@
         <v>12</v>
       </c>
       <c r="E387" s="5">
-        <v>35.5</v>
+        <v>35.875</v>
       </c>
       <c r="F387" s="5">
-        <v>297.79558400000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -56956,10 +56967,10 @@
         <v>12</v>
       </c>
       <c r="E388" s="5">
-        <v>35.875</v>
+        <v>35.75</v>
       </c>
       <c r="F388" s="5">
-        <v>300.94131199999998</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -56976,10 +56987,10 @@
         <v>12</v>
       </c>
       <c r="E389" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F389" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -56996,10 +57007,10 @@
         <v>12</v>
       </c>
       <c r="E390" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F390" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -57016,10 +57027,10 @@
         <v>12</v>
       </c>
       <c r="E391" s="5">
-        <v>35.25</v>
+        <v>36.5</v>
       </c>
       <c r="F391" s="5">
-        <v>295.69843200000003</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -57036,10 +57047,10 @@
         <v>13</v>
       </c>
       <c r="E392" s="5">
-        <v>8.375</v>
+        <v>35.875</v>
       </c>
       <c r="F392" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -57056,10 +57067,10 @@
         <v>13</v>
       </c>
       <c r="E393" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F393" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -57076,10 +57087,10 @@
         <v>13</v>
       </c>
       <c r="E394" s="5">
-        <v>8.625</v>
+        <v>35.5</v>
       </c>
       <c r="F394" s="5">
-        <v>72.351743999999997</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -57096,10 +57107,10 @@
         <v>13</v>
       </c>
       <c r="E395" s="5">
-        <v>8.5</v>
+        <v>35.5</v>
       </c>
       <c r="F395" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -57116,10 +57127,10 @@
         <v>13</v>
       </c>
       <c r="E396" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F396" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -57136,10 +57147,10 @@
         <v>13</v>
       </c>
       <c r="E397" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F397" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -57156,10 +57167,10 @@
         <v>13</v>
       </c>
       <c r="E398" s="5">
-        <v>8.625</v>
+        <v>35.875</v>
       </c>
       <c r="F398" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -57176,10 +57187,10 @@
         <v>13</v>
       </c>
       <c r="E399" s="5">
-        <v>8.5</v>
+        <v>36.875</v>
       </c>
       <c r="F399" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -57196,10 +57207,10 @@
         <v>13</v>
       </c>
       <c r="E400" s="5">
-        <v>8.875</v>
+        <v>36.375</v>
       </c>
       <c r="F400" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -57216,10 +57227,10 @@
         <v>13</v>
       </c>
       <c r="E401" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F401" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -57236,10 +57247,10 @@
         <v>13</v>
       </c>
       <c r="E402" s="5">
-        <v>8.75</v>
+        <v>35.625</v>
       </c>
       <c r="F402" s="5">
-        <v>73.400319999999994</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -57256,10 +57267,10 @@
         <v>13</v>
       </c>
       <c r="E403" s="5">
-        <v>8.5</v>
+        <v>36.125</v>
       </c>
       <c r="F403" s="5">
-        <v>71.303167999999999</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -57276,10 +57287,10 @@
         <v>13</v>
       </c>
       <c r="E404" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F404" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -57296,10 +57307,10 @@
         <v>13</v>
       </c>
       <c r="E405" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F405" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -57316,10 +57327,10 @@
         <v>13</v>
       </c>
       <c r="E406" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F406" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -57336,10 +57347,10 @@
         <v>13</v>
       </c>
       <c r="E407" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F407" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -57356,10 +57367,10 @@
         <v>13</v>
       </c>
       <c r="E408" s="5">
-        <v>8.375</v>
+        <v>36.375</v>
       </c>
       <c r="F408" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -57376,10 +57387,10 @@
         <v>13</v>
       </c>
       <c r="E409" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F409" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -57396,10 +57407,10 @@
         <v>13</v>
       </c>
       <c r="E410" s="5">
-        <v>35.75</v>
+        <v>36.875</v>
       </c>
       <c r="F410" s="5">
-        <v>299.89273600000001</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -57416,10 +57427,10 @@
         <v>13</v>
       </c>
       <c r="E411" s="5">
-        <v>35.625</v>
+        <v>36.375</v>
       </c>
       <c r="F411" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -57456,10 +57467,10 @@
         <v>13</v>
       </c>
       <c r="E413" s="5">
-        <v>35.75</v>
+        <v>36.625</v>
       </c>
       <c r="F413" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -57476,10 +57487,10 @@
         <v>13</v>
       </c>
       <c r="E414" s="5">
-        <v>35.125</v>
+        <v>36.375</v>
       </c>
       <c r="F414" s="5">
-        <v>294.649856</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -57496,10 +57507,10 @@
         <v>13</v>
       </c>
       <c r="E415" s="5">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="F415" s="5">
-        <v>297.79558400000002</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -57516,10 +57527,10 @@
         <v>13</v>
       </c>
       <c r="E416" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F416" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -57536,10 +57547,10 @@
         <v>13</v>
       </c>
       <c r="E417" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F417" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -57556,10 +57567,10 @@
         <v>13</v>
       </c>
       <c r="E418" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F418" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -57596,10 +57607,10 @@
         <v>13</v>
       </c>
       <c r="E420" s="5">
-        <v>35.75</v>
+        <v>36.375</v>
       </c>
       <c r="F420" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -57616,10 +57627,10 @@
         <v>13</v>
       </c>
       <c r="E421" s="5">
-        <v>35.75</v>
+        <v>36.5</v>
       </c>
       <c r="F421" s="5">
-        <v>299.89273600000001</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -57636,10 +57647,10 @@
         <v>14</v>
       </c>
       <c r="E422" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F422" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -57656,10 +57667,10 @@
         <v>14</v>
       </c>
       <c r="E423" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F423" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -57676,10 +57687,10 @@
         <v>14</v>
       </c>
       <c r="E424" s="5">
-        <v>8.5</v>
+        <v>35.625</v>
       </c>
       <c r="F424" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -57696,10 +57707,10 @@
         <v>14</v>
       </c>
       <c r="E425" s="5">
-        <v>8.75</v>
+        <v>35.625</v>
       </c>
       <c r="F425" s="5">
-        <v>73.400319999999994</v>
+        <v>298.84415999999999</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -57716,10 +57727,10 @@
         <v>14</v>
       </c>
       <c r="E426" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F426" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -57736,10 +57747,10 @@
         <v>14</v>
       </c>
       <c r="E427" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F427" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -57756,10 +57767,10 @@
         <v>14</v>
       </c>
       <c r="E428" s="5">
-        <v>8.625</v>
+        <v>36.875</v>
       </c>
       <c r="F428" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -57776,10 +57787,10 @@
         <v>14</v>
       </c>
       <c r="E429" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F429" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -57796,10 +57807,10 @@
         <v>14</v>
       </c>
       <c r="E430" s="5">
-        <v>8</v>
+        <v>36.375</v>
       </c>
       <c r="F430" s="5">
-        <v>67.108863999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -57816,10 +57827,10 @@
         <v>14</v>
       </c>
       <c r="E431" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F431" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -57836,10 +57847,10 @@
         <v>14</v>
       </c>
       <c r="E432" s="5">
-        <v>8.375</v>
+        <v>36.875</v>
       </c>
       <c r="F432" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -57856,10 +57867,10 @@
         <v>14</v>
       </c>
       <c r="E433" s="5">
-        <v>8.75</v>
+        <v>37</v>
       </c>
       <c r="F433" s="5">
-        <v>73.400319999999994</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -57876,10 +57887,10 @@
         <v>14</v>
       </c>
       <c r="E434" s="5">
-        <v>8.625</v>
+        <v>35.75</v>
       </c>
       <c r="F434" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -57896,10 +57907,10 @@
         <v>14</v>
       </c>
       <c r="E435" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F435" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -57916,10 +57927,10 @@
         <v>14</v>
       </c>
       <c r="E436" s="5">
-        <v>8.75</v>
+        <v>36.375</v>
       </c>
       <c r="F436" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -57936,10 +57947,10 @@
         <v>14</v>
       </c>
       <c r="E437" s="5">
-        <v>8.5</v>
+        <v>35.875</v>
       </c>
       <c r="F437" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -57956,10 +57967,10 @@
         <v>14</v>
       </c>
       <c r="E438" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F438" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -57976,10 +57987,10 @@
         <v>14</v>
       </c>
       <c r="E439" s="5">
-        <v>35.75</v>
+        <v>36.5</v>
       </c>
       <c r="F439" s="5">
-        <v>299.89273600000001</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -57996,10 +58007,10 @@
         <v>14</v>
       </c>
       <c r="E440" s="5">
-        <v>35.25</v>
+        <v>36.875</v>
       </c>
       <c r="F440" s="5">
-        <v>295.69843200000003</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -58016,10 +58027,10 @@
         <v>14</v>
       </c>
       <c r="E441" s="5">
-        <v>35.5</v>
+        <v>36.375</v>
       </c>
       <c r="F441" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -58036,10 +58047,10 @@
         <v>14</v>
       </c>
       <c r="E442" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F442" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -58056,10 +58067,10 @@
         <v>14</v>
       </c>
       <c r="E443" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F443" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -58076,10 +58087,10 @@
         <v>14</v>
       </c>
       <c r="E444" s="5">
-        <v>35.625</v>
+        <v>36.375</v>
       </c>
       <c r="F444" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -58096,10 +58107,10 @@
         <v>14</v>
       </c>
       <c r="E445" s="5">
-        <v>35.625</v>
+        <v>35.5</v>
       </c>
       <c r="F445" s="5">
-        <v>298.84415999999999</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -58116,10 +58127,10 @@
         <v>14</v>
       </c>
       <c r="E446" s="5">
-        <v>35.25</v>
+        <v>37</v>
       </c>
       <c r="F446" s="5">
-        <v>295.69843200000003</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -58136,10 +58147,10 @@
         <v>14</v>
       </c>
       <c r="E447" s="5">
-        <v>35.625</v>
+        <v>35.75</v>
       </c>
       <c r="F447" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -58176,10 +58187,10 @@
         <v>14</v>
       </c>
       <c r="E449" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F449" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -58196,10 +58207,10 @@
         <v>14</v>
       </c>
       <c r="E450" s="5">
-        <v>35.25</v>
+        <v>36.375</v>
       </c>
       <c r="F450" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -58216,10 +58227,10 @@
         <v>14</v>
       </c>
       <c r="E451" s="5">
-        <v>35.25</v>
+        <v>36.625</v>
       </c>
       <c r="F451" s="5">
-        <v>295.69843200000003</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -58236,10 +58247,10 @@
         <v>15</v>
       </c>
       <c r="E452" s="5">
-        <v>8.75</v>
+        <v>36.25</v>
       </c>
       <c r="F452" s="5">
-        <v>73.400319999999994</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -58256,10 +58267,10 @@
         <v>15</v>
       </c>
       <c r="E453" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F453" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -58276,10 +58287,10 @@
         <v>15</v>
       </c>
       <c r="E454" s="5">
-        <v>8.5</v>
+        <v>35.5</v>
       </c>
       <c r="F454" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -58296,10 +58307,10 @@
         <v>15</v>
       </c>
       <c r="E455" s="5">
-        <v>8.375</v>
+        <v>35.5</v>
       </c>
       <c r="F455" s="5">
-        <v>70.254592000000002</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -58316,10 +58327,10 @@
         <v>15</v>
       </c>
       <c r="E456" s="5">
-        <v>8.625</v>
+        <v>37</v>
       </c>
       <c r="F456" s="5">
-        <v>72.351743999999997</v>
+        <v>310.37849599999998</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -58336,10 +58347,10 @@
         <v>15</v>
       </c>
       <c r="E457" s="5">
-        <v>8.375</v>
+        <v>35.875</v>
       </c>
       <c r="F457" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -58356,10 +58367,10 @@
         <v>15</v>
       </c>
       <c r="E458" s="5">
-        <v>8.5</v>
+        <v>36.375</v>
       </c>
       <c r="F458" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -58376,10 +58387,10 @@
         <v>15</v>
       </c>
       <c r="E459" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F459" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -58396,10 +58407,10 @@
         <v>15</v>
       </c>
       <c r="E460" s="5">
-        <v>9</v>
+        <v>36.375</v>
       </c>
       <c r="F460" s="5">
-        <v>75.497472000000002</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -58416,10 +58427,10 @@
         <v>15</v>
       </c>
       <c r="E461" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F461" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -58436,10 +58447,10 @@
         <v>15</v>
       </c>
       <c r="E462" s="5">
-        <v>8.75</v>
+        <v>35.5</v>
       </c>
       <c r="F462" s="5">
-        <v>73.400319999999994</v>
+        <v>297.79558400000002</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -58456,10 +58467,10 @@
         <v>15</v>
       </c>
       <c r="E463" s="5">
-        <v>8.375</v>
+        <v>36.5</v>
       </c>
       <c r="F463" s="5">
-        <v>70.254592000000002</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -58476,10 +58487,10 @@
         <v>15</v>
       </c>
       <c r="E464" s="5">
-        <v>8.625</v>
+        <v>35.875</v>
       </c>
       <c r="F464" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -58496,10 +58507,10 @@
         <v>15</v>
       </c>
       <c r="E465" s="5">
-        <v>8.5</v>
+        <v>35.75</v>
       </c>
       <c r="F465" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -58516,10 +58527,10 @@
         <v>15</v>
       </c>
       <c r="E466" s="5">
-        <v>8.625</v>
+        <v>36.375</v>
       </c>
       <c r="F466" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -58536,10 +58547,10 @@
         <v>15</v>
       </c>
       <c r="E467" s="5">
-        <v>8.625</v>
+        <v>36.5</v>
       </c>
       <c r="F467" s="5">
-        <v>72.351743999999997</v>
+        <v>306.184192</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -58556,10 +58567,10 @@
         <v>15</v>
       </c>
       <c r="E468" s="5">
-        <v>8.75</v>
+        <v>35.75</v>
       </c>
       <c r="F468" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -58576,10 +58587,10 @@
         <v>15</v>
       </c>
       <c r="E469" s="5">
-        <v>35.25</v>
+        <v>36.125</v>
       </c>
       <c r="F469" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -58596,10 +58607,10 @@
         <v>15</v>
       </c>
       <c r="E470" s="5">
-        <v>35.875</v>
+        <v>36.375</v>
       </c>
       <c r="F470" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -58616,10 +58627,10 @@
         <v>15</v>
       </c>
       <c r="E471" s="5">
-        <v>35.625</v>
+        <v>35.75</v>
       </c>
       <c r="F471" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -58636,10 +58647,10 @@
         <v>15</v>
       </c>
       <c r="E472" s="5">
-        <v>35.875</v>
+        <v>36.375</v>
       </c>
       <c r="F472" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -58656,10 +58667,10 @@
         <v>15</v>
       </c>
       <c r="E473" s="5">
-        <v>35.75</v>
+        <v>36.625</v>
       </c>
       <c r="F473" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -58676,10 +58687,10 @@
         <v>15</v>
       </c>
       <c r="E474" s="5">
-        <v>35.75</v>
+        <v>36.875</v>
       </c>
       <c r="F474" s="5">
-        <v>299.89273600000001</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -58696,10 +58707,10 @@
         <v>15</v>
       </c>
       <c r="E475" s="5">
-        <v>35.5</v>
+        <v>36.875</v>
       </c>
       <c r="F475" s="5">
-        <v>297.79558400000002</v>
+        <v>309.32992000000002</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -58716,10 +58727,10 @@
         <v>15</v>
       </c>
       <c r="E476" s="5">
-        <v>35.875</v>
+        <v>36.25</v>
       </c>
       <c r="F476" s="5">
-        <v>300.94131199999998</v>
+        <v>304.08704</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -58736,10 +58747,10 @@
         <v>15</v>
       </c>
       <c r="E477" s="5">
-        <v>35.5</v>
+        <v>35.75</v>
       </c>
       <c r="F477" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -58756,10 +58767,10 @@
         <v>15</v>
       </c>
       <c r="E478" s="5">
-        <v>35.25</v>
+        <v>35.875</v>
       </c>
       <c r="F478" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -58776,10 +58787,10 @@
         <v>15</v>
       </c>
       <c r="E479" s="5">
-        <v>35.25</v>
+        <v>35.75</v>
       </c>
       <c r="F479" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -58796,10 +58807,10 @@
         <v>15</v>
       </c>
       <c r="E480" s="5">
-        <v>36</v>
+        <v>36.375</v>
       </c>
       <c r="F480" s="5">
-        <v>301.98988800000001</v>
+        <v>305.13561600000003</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -58816,10 +58827,10 @@
         <v>15</v>
       </c>
       <c r="E481" s="5">
-        <v>35.75</v>
+        <v>36.5</v>
       </c>
       <c r="F481" s="5">
-        <v>299.89273600000001</v>
+        <v>306.184192</v>
       </c>
     </row>
   </sheetData>
@@ -58827,5 +58838,6 @@
     <sortCondition ref="D2:D481"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>